--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -436,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,102 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -615,7 +711,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -653,11 +749,35 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="46">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -690,8 +810,24 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="8" fillId="0" fontId="21" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="22" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="9" fillId="0" fontId="23" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="25" fillId="0" borderId="10" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="24" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="10" fillId="0" fontId="25" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="26" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="11" fillId="0" fontId="27" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="28" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="12" fillId="0" fontId="29" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="30" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="13" fillId="0" fontId="31" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="32" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="14" fillId="0" fontId="33" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="34" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="15" fillId="0" fontId="35" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="36" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="41" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>

--- a/templates/AutomationOrg/POData_AutomationOrg.xlsx
+++ b/templates/AutomationOrg/POData_AutomationOrg.xlsx
@@ -436,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="50" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -473,6 +473,54 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -711,7 +759,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -773,11 +821,23 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFill="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
@@ -826,8 +886,16 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="37" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="38" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="39" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="41" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="40" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="41" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="42" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="43" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="44" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="45" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="46" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="47" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="49" fillId="0" borderId="22" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
